--- a/DATA_FILES/X_TEST_Z8_DELETE_SHEET.xlsx
+++ b/DATA_FILES/X_TEST_Z8_DELETE_SHEET.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,32 +413,54 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C1" t="n">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>abc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bcd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cde</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>66000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>